--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nppa</t>
   </si>
   <si>
     <t>Npr3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.444374442140331</v>
+        <v>0.1654395</v>
       </c>
       <c r="H2">
-        <v>0.444374442140331</v>
+        <v>0.330879</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1548351743827374</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1155465552264825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.985248239489164</v>
+        <v>1.036780333333333</v>
       </c>
       <c r="N2">
-        <v>0.985248239489164</v>
+        <v>3.110341</v>
       </c>
       <c r="O2">
-        <v>0.8546581903786155</v>
+        <v>0.7068906211239625</v>
       </c>
       <c r="P2">
-        <v>0.8546581903786155</v>
+        <v>0.7367257056395262</v>
       </c>
       <c r="Q2">
-        <v>0.4378191367927405</v>
+        <v>0.1715244199565</v>
       </c>
       <c r="R2">
-        <v>0.4378191367927405</v>
+        <v>1.029146519739</v>
       </c>
       <c r="S2">
-        <v>0.8546581903786155</v>
+        <v>0.1094515325912503</v>
       </c>
       <c r="T2">
-        <v>0.8546581903786155</v>
+        <v>0.08512611743344678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,867 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.1654395</v>
+      </c>
+      <c r="H3">
+        <v>0.330879</v>
+      </c>
+      <c r="I3">
+        <v>0.1548351743827374</v>
+      </c>
+      <c r="J3">
+        <v>0.1155465552264825</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.2517093333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.755128</v>
+      </c>
+      <c r="O3">
+        <v>0.1716187713656141</v>
+      </c>
+      <c r="P3">
+        <v>0.1788621275442674</v>
+      </c>
+      <c r="Q3">
+        <v>0.041642666252</v>
+      </c>
+      <c r="R3">
+        <v>0.249855997512</v>
+      </c>
+      <c r="S3">
+        <v>0.02657262239174601</v>
+      </c>
+      <c r="T3">
+        <v>0.02066690269821984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1654395</v>
+      </c>
+      <c r="H4">
+        <v>0.330879</v>
+      </c>
+      <c r="I4">
+        <v>0.1548351743827374</v>
+      </c>
+      <c r="J4">
+        <v>0.1155465552264825</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.1781875</v>
+      </c>
+      <c r="N4">
+        <v>0.356375</v>
+      </c>
+      <c r="O4">
+        <v>0.1214906075104235</v>
+      </c>
+      <c r="P4">
+        <v>0.08441216681620638</v>
+      </c>
+      <c r="Q4">
+        <v>0.02947925090625</v>
+      </c>
+      <c r="R4">
+        <v>0.117917003625</v>
+      </c>
+      <c r="S4">
+        <v>0.01881101939974113</v>
+      </c>
+      <c r="T4">
+        <v>0.009753535094815842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.230995</v>
+      </c>
+      <c r="I5">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J5">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.036780333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.110341</v>
+      </c>
+      <c r="O5">
+        <v>0.7068906211239625</v>
+      </c>
+      <c r="P5">
+        <v>0.7367257056395262</v>
+      </c>
+      <c r="Q5">
+        <v>0.07983035769944445</v>
+      </c>
+      <c r="R5">
+        <v>0.7184732192950001</v>
+      </c>
+      <c r="S5">
+        <v>0.0509405890993704</v>
+      </c>
+      <c r="T5">
+        <v>0.0594286959781039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.230995</v>
+      </c>
+      <c r="I6">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J6">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2517093333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.755128</v>
+      </c>
+      <c r="O6">
+        <v>0.1716187713656141</v>
+      </c>
+      <c r="P6">
+        <v>0.1788621275442674</v>
+      </c>
+      <c r="Q6">
+        <v>0.01938119915111111</v>
+      </c>
+      <c r="R6">
+        <v>0.17443079236</v>
+      </c>
+      <c r="S6">
+        <v>0.01236734659171755</v>
+      </c>
+      <c r="T6">
+        <v>0.01442808757514165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.230995</v>
+      </c>
+      <c r="I7">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J7">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.1781875</v>
+      </c>
+      <c r="N7">
+        <v>0.356375</v>
+      </c>
+      <c r="O7">
+        <v>0.1214906075104235</v>
+      </c>
+      <c r="P7">
+        <v>0.08441216681620638</v>
+      </c>
+      <c r="Q7">
+        <v>0.01372014052083333</v>
+      </c>
+      <c r="R7">
+        <v>0.082320843125</v>
+      </c>
+      <c r="S7">
+        <v>0.008754965664675412</v>
+      </c>
+      <c r="T7">
+        <v>0.006809189580562639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.444374442140331</v>
-      </c>
-      <c r="H3">
-        <v>0.444374442140331</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.167549745226453</v>
-      </c>
-      <c r="N3">
-        <v>0.167549745226453</v>
-      </c>
-      <c r="O3">
-        <v>0.1453418096213846</v>
-      </c>
-      <c r="P3">
-        <v>0.1453418096213846</v>
-      </c>
-      <c r="Q3">
-        <v>0.07445482456575964</v>
-      </c>
-      <c r="R3">
-        <v>0.07445482456575964</v>
-      </c>
-      <c r="S3">
-        <v>0.1453418096213846</v>
-      </c>
-      <c r="T3">
-        <v>0.1453418096213846</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.38902</v>
+      </c>
+      <c r="I8">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J8">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.036780333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.110341</v>
+      </c>
+      <c r="O8">
+        <v>0.7068906211239625</v>
+      </c>
+      <c r="P8">
+        <v>0.7367257056395262</v>
+      </c>
+      <c r="Q8">
+        <v>0.1344427617577778</v>
+      </c>
+      <c r="R8">
+        <v>1.20998485582</v>
+      </c>
+      <c r="S8">
+        <v>0.08578933730789444</v>
+      </c>
+      <c r="T8">
+        <v>0.1000842066252602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.38902</v>
+      </c>
+      <c r="I9">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J9">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2517093333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.755128</v>
+      </c>
+      <c r="O9">
+        <v>0.1716187713656141</v>
+      </c>
+      <c r="P9">
+        <v>0.1788621275442674</v>
+      </c>
+      <c r="Q9">
+        <v>0.03263998828444445</v>
+      </c>
+      <c r="R9">
+        <v>0.29375989456</v>
+      </c>
+      <c r="S9">
+        <v>0.02082791909396291</v>
+      </c>
+      <c r="T9">
+        <v>0.02429842476452565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.38902</v>
+      </c>
+      <c r="I10">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J10">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.1781875</v>
+      </c>
+      <c r="N10">
+        <v>0.356375</v>
+      </c>
+      <c r="O10">
+        <v>0.1214906075104235</v>
+      </c>
+      <c r="P10">
+        <v>0.08441216681620638</v>
+      </c>
+      <c r="Q10">
+        <v>0.02310616708333333</v>
+      </c>
+      <c r="R10">
+        <v>0.1386370025</v>
+      </c>
+      <c r="S10">
+        <v>0.01474428772428853</v>
+      </c>
+      <c r="T10">
+        <v>0.01146739509786133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.559855</v>
+      </c>
+      <c r="I11">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J11">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.036780333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.110341</v>
+      </c>
+      <c r="O11">
+        <v>0.7068906211239625</v>
+      </c>
+      <c r="P11">
+        <v>0.7367257056395262</v>
+      </c>
+      <c r="Q11">
+        <v>0.5390756622838889</v>
+      </c>
+      <c r="R11">
+        <v>4.851680960555001</v>
+      </c>
+      <c r="S11">
+        <v>0.3439898379168312</v>
+      </c>
+      <c r="T11">
+        <v>0.401308030757918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.559855</v>
+      </c>
+      <c r="I12">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J12">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2517093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.755128</v>
+      </c>
+      <c r="O12">
+        <v>0.1716187713656141</v>
+      </c>
+      <c r="P12">
+        <v>0.1788621275442674</v>
+      </c>
+      <c r="Q12">
+        <v>0.1308766873822222</v>
+      </c>
+      <c r="R12">
+        <v>1.17789018644</v>
+      </c>
+      <c r="S12">
+        <v>0.08351378782148353</v>
+      </c>
+      <c r="T12">
+        <v>0.09742948784399046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.559855</v>
+      </c>
+      <c r="I13">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J13">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.1781875</v>
+      </c>
+      <c r="N13">
+        <v>0.356375</v>
+      </c>
+      <c r="O13">
+        <v>0.1214906075104235</v>
+      </c>
+      <c r="P13">
+        <v>0.08441216681620638</v>
+      </c>
+      <c r="Q13">
+        <v>0.09264888760416667</v>
+      </c>
+      <c r="R13">
+        <v>0.555893325625</v>
+      </c>
+      <c r="S13">
+        <v>0.0591202275671433</v>
+      </c>
+      <c r="T13">
+        <v>0.04598085851723429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.176425</v>
+      </c>
+      <c r="H14">
+        <v>0.35285</v>
+      </c>
+      <c r="I14">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J14">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.036780333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.110341</v>
+      </c>
+      <c r="O14">
+        <v>0.7068906211239625</v>
+      </c>
+      <c r="P14">
+        <v>0.7367257056395262</v>
+      </c>
+      <c r="Q14">
+        <v>0.1829139703083333</v>
+      </c>
+      <c r="R14">
+        <v>1.09748382185</v>
+      </c>
+      <c r="S14">
+        <v>0.1167193242086161</v>
+      </c>
+      <c r="T14">
+        <v>0.09077865484479733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.176425</v>
+      </c>
+      <c r="H15">
+        <v>0.35285</v>
+      </c>
+      <c r="I15">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J15">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2517093333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.755128</v>
+      </c>
+      <c r="O15">
+        <v>0.1716187713656141</v>
+      </c>
+      <c r="P15">
+        <v>0.1788621275442674</v>
+      </c>
+      <c r="Q15">
+        <v>0.04440781913333333</v>
+      </c>
+      <c r="R15">
+        <v>0.2664469148</v>
+      </c>
+      <c r="S15">
+        <v>0.02833709546670408</v>
+      </c>
+      <c r="T15">
+        <v>0.02203922466238979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.176425</v>
+      </c>
+      <c r="H16">
+        <v>0.35285</v>
+      </c>
+      <c r="I16">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J16">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.1781875</v>
+      </c>
+      <c r="N16">
+        <v>0.356375</v>
+      </c>
+      <c r="O16">
+        <v>0.1214906075104235</v>
+      </c>
+      <c r="P16">
+        <v>0.08441216681620638</v>
+      </c>
+      <c r="Q16">
+        <v>0.0314367296875</v>
+      </c>
+      <c r="R16">
+        <v>0.12574691875</v>
+      </c>
+      <c r="S16">
+        <v>0.02006010715457511</v>
+      </c>
+      <c r="T16">
+        <v>0.01040118852573228</v>
       </c>
     </row>
   </sheetData>
